--- a/SPRB.xlsx
+++ b/SPRB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdl/Documents/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corben/Documents/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49A67496-2285-794E-A2DF-73CE696DC02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4478C0C-6AF3-0543-9114-EEACCA6933DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="620" windowWidth="50600" windowHeight="26360" activeTab="1" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
+    <workbookView xWindow="600" yWindow="760" windowWidth="33960" windowHeight="19860" activeTab="1" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>COGS</t>
   </si>
@@ -59,12 +59,6 @@
     <t>US Eligible pool</t>
   </si>
   <si>
-    <t>EU eligible pool</t>
-  </si>
-  <si>
-    <t>EU list price ($/pt/yr)</t>
-  </si>
-  <si>
     <t>SG&amp;A</t>
   </si>
   <si>
@@ -140,18 +134,12 @@
     <t>Biomarin Royalty***</t>
   </si>
   <si>
-    <t>***Took average royalty, did not account for milestone payments in DCF</t>
-  </si>
-  <si>
     <t>ex-US prevalence</t>
   </si>
   <si>
     <t>US prevalence</t>
   </si>
   <si>
-    <t>Eligible for treatment</t>
-  </si>
-  <si>
     <t>Probability of success</t>
   </si>
   <si>
@@ -174,20 +162,41 @@
   </si>
   <si>
     <t>Patients-exUS</t>
+  </si>
+  <si>
+    <t>Milestone Payments</t>
+  </si>
+  <si>
+    <t>***Took average royalty…milestones modeled as $25m at regulatory approval and $100m sales-based tranches between 2030–2036 (actual timing tbd, just a guess)</t>
+  </si>
+  <si>
+    <t>exUS list price ($/pt/yr)</t>
+  </si>
+  <si>
+    <t>exUS eligible pool</t>
+  </si>
+  <si>
+    <t>Eligible %</t>
+  </si>
+  <si>
+    <t>% eligible for treatment</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="#,##0.000000"/>
-    <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.0_);[Red]\(&quot;$&quot;#,##0.0\)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -213,6 +222,18 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -281,12 +302,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -295,10 +317,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -306,12 +327,18 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Comma" xfId="3" builtinId="3"/>
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
@@ -379,9 +406,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -419,7 +446,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -525,7 +552,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -667,7 +694,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -678,7 +705,7 @@
   <dimension ref="B3:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -700,14 +727,14 @@
         <v>3600000</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F3" s="5">
-        <f>SUM(I3:I8)</f>
+        <f>SUM(I3:I7)</f>
         <v>5660000</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I3" s="5">
         <v>3670000</v>
@@ -717,19 +744,19 @@
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="10">
         <f>1/200000</f>
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <f>1/200000</f>
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5">
         <v>590000</v>
@@ -749,98 +776,101 @@
         <v>18</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I5" s="5">
         <v>760000</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="10">
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="9">
         <f>C3*C4*C5</f>
         <v>324</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="E6" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="9">
         <f>F3*F4*F5</f>
         <v>509.40000000000003</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
+      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5">
+        <v>350000</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="17">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="17">
-        <v>0.5</v>
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.7</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0.65</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="5">
-        <v>350000</v>
+        <v>290000</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="15">
+        <v>26</v>
+      </c>
+      <c r="C8" s="14">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="F8" s="7">
         <f>F6*C8*F7</f>
-        <v>254.70000000000002</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I8" s="5">
-        <v>290000</v>
-      </c>
+        <v>331.11</v>
+      </c>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="13">
         <f>C6*C7*C8</f>
-        <v>178.20000000000002</v>
+        <v>226.79999999999998</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="8">
+        <v>30</v>
+      </c>
+      <c r="C11" s="23">
         <v>900000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="8">
+        <v>44</v>
+      </c>
+      <c r="F11" s="23">
         <f>C11/1.6</f>
         <v>562500</v>
       </c>
+      <c r="H11" s="15" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="6">
         <v>0.15</v>
@@ -849,31 +879,29 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="9">
+        <v>28</v>
+      </c>
+      <c r="C13" s="24">
         <f>C11*(1-C12)</f>
         <v>765000</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="16" t="s">
-        <v>29</v>
-      </c>
+      <c r="G13" s="15"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" s="5" t="s">
         <v>0</v>
       </c>
       <c r="C15" s="6">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="6">
         <f>((9+13)/2)/100</f>
@@ -882,39 +910,39 @@
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B18" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="5">
+        <v>17</v>
+      </c>
+      <c r="C18" s="25">
         <v>1298325</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E44" s="16" t="s">
-        <v>31</v>
+      <c r="E44" s="15" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E47" s="16"/>
+      <c r="E47" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E44" r:id="rId1" xr:uid="{18F88C3E-7E7A-BC4C-BBA3-46FB9CD3630B}"/>
-    <hyperlink ref="G13" r:id="rId2" xr:uid="{D1D1F1F5-834E-114B-86BE-F5D7FF23AE0C}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{15ADD8F0-7A14-134E-9A51-0C8E005402CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -924,13 +952,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F22E3D-7CD6-684C-96B5-393F273B0779}">
-  <dimension ref="B2:O28"/>
+  <dimension ref="B2:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="P7" sqref="P7"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -997,28 +1025,28 @@
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D3" s="3">
-        <v>0.25</v>
+        <v>0.01</v>
       </c>
       <c r="E3" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="F3" s="3">
         <v>0.4</v>
       </c>
-      <c r="F3" s="3">
-        <v>0.55000000000000004</v>
-      </c>
       <c r="G3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0.65</v>
+      </c>
+      <c r="J3" s="3">
         <v>0.7</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.75</v>
       </c>
       <c r="K3" s="3">
         <v>0.75</v>
@@ -1027,18 +1055,18 @@
         <v>0.75</v>
       </c>
       <c r="M3" s="3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="N3" s="3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
       <c r="O3" s="3">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1050,13 +1078,13 @@
         <v>0.25</v>
       </c>
       <c r="G4" s="3">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="H4" s="3">
+        <v>0.45</v>
+      </c>
+      <c r="I4" s="3">
         <v>0.55000000000000004</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0.65</v>
       </c>
       <c r="J4" s="3">
         <v>0.65</v>
@@ -1079,108 +1107,108 @@
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="12">
+        <v>40</v>
+      </c>
+      <c r="D5" s="11">
         <f>ROUNDUP(D3*Main!$C$9,0)</f>
-        <v>45</v>
-      </c>
-      <c r="E5" s="12">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11">
         <f>ROUNDUP(E3*Main!$C$9,0)</f>
-        <v>72</v>
-      </c>
-      <c r="F5" s="12">
+        <v>69</v>
+      </c>
+      <c r="F5" s="11">
         <f>ROUNDUP(F3*Main!$C$9,0)</f>
-        <v>99</v>
-      </c>
-      <c r="G5" s="12">
+        <v>91</v>
+      </c>
+      <c r="G5" s="11">
         <f>ROUNDUP(G3*Main!$C$9,0)</f>
-        <v>125</v>
-      </c>
-      <c r="H5" s="12">
+        <v>114</v>
+      </c>
+      <c r="H5" s="11">
         <f>ROUNDUP(H3*Main!$C$9,0)</f>
-        <v>134</v>
-      </c>
-      <c r="I5" s="12">
+        <v>137</v>
+      </c>
+      <c r="I5" s="11">
         <f>ROUNDUP(I3*Main!$C$9,0)</f>
-        <v>134</v>
-      </c>
-      <c r="J5" s="12">
+        <v>148</v>
+      </c>
+      <c r="J5" s="11">
         <f>ROUNDUP(J3*Main!$C$9,0)</f>
-        <v>134</v>
-      </c>
-      <c r="K5" s="12">
+        <v>159</v>
+      </c>
+      <c r="K5" s="11">
         <f>ROUNDUP(K3*Main!$C$9,0)</f>
-        <v>134</v>
-      </c>
-      <c r="L5" s="12">
+        <v>171</v>
+      </c>
+      <c r="L5" s="11">
         <f>ROUNDUP(L3*Main!$C$9,0)</f>
-        <v>134</v>
-      </c>
-      <c r="M5" s="12">
+        <v>171</v>
+      </c>
+      <c r="M5" s="11">
         <f>ROUNDUP(M3*Main!$C$9,0)</f>
-        <v>134</v>
-      </c>
-      <c r="N5" s="12">
+        <v>182</v>
+      </c>
+      <c r="N5" s="11">
         <f>ROUNDUP(N3*Main!$C$9,0)</f>
-        <v>134</v>
-      </c>
-      <c r="O5" s="12">
+        <v>182</v>
+      </c>
+      <c r="O5" s="11">
         <f>ROUNDUP(O3*Main!$C$9,0)</f>
-        <v>134</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="12">
+        <v>41</v>
+      </c>
+      <c r="D6" s="11">
         <f>ROUNDUP(D4*Main!$F$8,0)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="11">
         <f>ROUNDUP(E4*Main!$F$8,0)</f>
-        <v>26</v>
-      </c>
-      <c r="F6" s="12">
+        <v>34</v>
+      </c>
+      <c r="F6" s="11">
         <f>ROUNDUP(F4*Main!$F$8,0)</f>
-        <v>64</v>
-      </c>
-      <c r="G6" s="12">
+        <v>83</v>
+      </c>
+      <c r="G6" s="11">
         <f>ROUNDUP(G4*Main!$F$8,0)</f>
-        <v>102</v>
-      </c>
-      <c r="H6" s="12">
+        <v>116</v>
+      </c>
+      <c r="H6" s="11">
         <f>ROUNDUP(H4*Main!$F$8,0)</f>
-        <v>141</v>
-      </c>
-      <c r="I6" s="12">
+        <v>149</v>
+      </c>
+      <c r="I6" s="11">
         <f>ROUNDUP(I4*Main!$F$8,0)</f>
-        <v>166</v>
-      </c>
-      <c r="J6" s="12">
+        <v>183</v>
+      </c>
+      <c r="J6" s="11">
         <f>ROUNDUP(J4*Main!$F$8,0)</f>
-        <v>166</v>
-      </c>
-      <c r="K6" s="12">
+        <v>216</v>
+      </c>
+      <c r="K6" s="11">
         <f>ROUNDUP(K4*Main!$F$8,0)</f>
-        <v>166</v>
-      </c>
-      <c r="L6" s="12">
+        <v>216</v>
+      </c>
+      <c r="L6" s="11">
         <f>ROUNDUP(L4*Main!$F$8,0)</f>
-        <v>166</v>
-      </c>
-      <c r="M6" s="12">
+        <v>216</v>
+      </c>
+      <c r="M6" s="11">
         <f>ROUNDUP(M4*Main!$F$8,0)</f>
-        <v>166</v>
-      </c>
-      <c r="N6" s="12">
+        <v>216</v>
+      </c>
+      <c r="N6" s="11">
         <f>ROUNDUP(N4*Main!$F$8,0)</f>
-        <v>166</v>
-      </c>
-      <c r="O6" s="12">
+        <v>216</v>
+      </c>
+      <c r="O6" s="11">
         <f>ROUNDUP(O4*Main!$F$8,0)</f>
-        <v>166</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.2">
@@ -1189,51 +1217,51 @@
       </c>
       <c r="D8" s="1">
         <f>((D5*Main!$C$11)+(D6*Main!$F$11))/1000000</f>
-        <v>40.5</v>
+        <v>2.7</v>
       </c>
       <c r="E8" s="1">
         <f>((E5*Main!$C$11)+(E6*Main!$F$11))/1000000</f>
-        <v>79.424999999999997</v>
+        <v>81.224999999999994</v>
       </c>
       <c r="F8" s="1">
         <f>((F5*Main!$C$11)+(F6*Main!$F$11))/1000000</f>
-        <v>125.1</v>
+        <v>128.58750000000001</v>
       </c>
       <c r="G8" s="1">
         <f>((G5*Main!$C$11)+(G6*Main!$F$11))/1000000</f>
-        <v>169.875</v>
+        <v>167.85</v>
       </c>
       <c r="H8" s="1">
         <f>((H5*Main!$C$11)+(H6*Main!$F$11))/1000000</f>
-        <v>199.91249999999999</v>
+        <v>207.11250000000001</v>
       </c>
       <c r="I8" s="1">
         <f>((I5*Main!$C$11)+(I6*Main!$F$11))/1000000</f>
-        <v>213.97499999999999</v>
+        <v>236.13749999999999</v>
       </c>
       <c r="J8" s="1">
         <f>((J5*Main!$C$11)+(J6*Main!$F$11))/1000000</f>
-        <v>213.97499999999999</v>
+        <v>264.60000000000002</v>
       </c>
       <c r="K8" s="1">
         <f>((K5*Main!$C$11)+(K6*Main!$F$11))/1000000</f>
-        <v>213.97499999999999</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="L8" s="1">
         <f>((L5*Main!$C$11)+(L6*Main!$F$11))/1000000</f>
-        <v>213.97499999999999</v>
+        <v>275.39999999999998</v>
       </c>
       <c r="M8" s="1">
         <f>((M5*Main!$C$11)+(M6*Main!$F$11))/1000000</f>
-        <v>213.97499999999999</v>
+        <v>285.3</v>
       </c>
       <c r="N8" s="1">
         <f>((N5*Main!$C$11)+(N6*Main!$F$11))/1000000</f>
-        <v>213.97499999999999</v>
+        <v>285.3</v>
       </c>
       <c r="O8" s="1">
         <f>((O5*Main!$C$11)+(O6*Main!$F$11))/1000000</f>
-        <v>213.97499999999999</v>
+        <v>285.3</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.2">
@@ -1242,216 +1270,216 @@
       </c>
       <c r="D9" s="2">
         <f>D8*Main!$C$15</f>
-        <v>8.1</v>
+        <v>0.45900000000000007</v>
       </c>
       <c r="E9" s="2">
         <f>E8*Main!$C$15</f>
-        <v>15.885</v>
+        <v>13.808249999999999</v>
       </c>
       <c r="F9" s="2">
         <f>F8*Main!$C$15</f>
-        <v>25.02</v>
+        <v>21.859875000000002</v>
       </c>
       <c r="G9" s="2">
         <f>G8*Main!$C$15</f>
-        <v>33.975000000000001</v>
+        <v>28.534500000000001</v>
       </c>
       <c r="H9" s="2">
         <f>H8*Main!$C$15</f>
-        <v>39.982500000000002</v>
+        <v>35.209125000000007</v>
       </c>
       <c r="I9" s="2">
         <f>I8*Main!$C$15</f>
-        <v>42.795000000000002</v>
+        <v>40.143374999999999</v>
       </c>
       <c r="J9" s="2">
         <f>J8*Main!$C$15</f>
-        <v>42.795000000000002</v>
+        <v>44.982000000000006</v>
       </c>
       <c r="K9" s="2">
         <f>K8*Main!$C$15</f>
-        <v>42.795000000000002</v>
+        <v>46.817999999999998</v>
       </c>
       <c r="L9" s="2">
         <f>L8*Main!$C$15</f>
-        <v>42.795000000000002</v>
+        <v>46.817999999999998</v>
       </c>
       <c r="M9" s="2">
         <f>M8*Main!$C$15</f>
-        <v>42.795000000000002</v>
+        <v>48.501000000000005</v>
       </c>
       <c r="N9" s="2">
         <f>N8*Main!$C$15</f>
-        <v>42.795000000000002</v>
+        <v>48.501000000000005</v>
       </c>
       <c r="O9" s="2">
         <f>O8*Main!$C$15</f>
-        <v>42.795000000000002</v>
+        <v>48.501000000000005</v>
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D10" s="2">
         <f>D8*Main!$C$16</f>
-        <v>4.4550000000000001</v>
+        <v>0.29700000000000004</v>
       </c>
       <c r="E10" s="2">
         <f>E8*Main!$C$16</f>
-        <v>8.7367499999999989</v>
+        <v>8.9347499999999993</v>
       </c>
       <c r="F10" s="2">
         <f>F8*Main!$C$16</f>
-        <v>13.760999999999999</v>
+        <v>14.144625000000001</v>
       </c>
       <c r="G10" s="2">
         <f>G8*Main!$C$16</f>
-        <v>18.686250000000001</v>
+        <v>18.4635</v>
       </c>
       <c r="H10" s="2">
         <f>H8*Main!$C$16</f>
-        <v>21.990375</v>
+        <v>22.782375000000002</v>
       </c>
       <c r="I10" s="2">
         <f>I8*Main!$C$16</f>
-        <v>23.53725</v>
+        <v>25.975124999999998</v>
       </c>
       <c r="J10" s="2">
         <f>J8*Main!$C$16</f>
-        <v>23.53725</v>
+        <v>29.106000000000002</v>
       </c>
       <c r="K10" s="2">
         <f>K8*Main!$C$16</f>
-        <v>23.53725</v>
+        <v>30.293999999999997</v>
       </c>
       <c r="L10" s="2">
         <f>L8*Main!$C$16</f>
-        <v>23.53725</v>
+        <v>30.293999999999997</v>
       </c>
       <c r="M10" s="2">
         <f>M8*Main!$C$16</f>
-        <v>23.53725</v>
+        <v>31.383000000000003</v>
       </c>
       <c r="N10" s="2">
         <f>N8*Main!$C$16</f>
-        <v>23.53725</v>
+        <v>31.383000000000003</v>
       </c>
       <c r="O10" s="2">
         <f>O8*Main!$C$16</f>
-        <v>23.53725</v>
+        <v>31.383000000000003</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13">
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12">
         <f>D8-D9-D10</f>
-        <v>27.945</v>
-      </c>
-      <c r="E11" s="13">
+        <v>1.944</v>
+      </c>
+      <c r="E11" s="12">
         <f t="shared" ref="E11:O11" si="1">E8-E9-E10</f>
-        <v>54.803249999999998</v>
-      </c>
-      <c r="F11" s="13">
+        <v>58.481999999999992</v>
+      </c>
+      <c r="F11" s="12">
         <f t="shared" si="1"/>
-        <v>86.319000000000003</v>
-      </c>
-      <c r="G11" s="13">
+        <v>92.582999999999998</v>
+      </c>
+      <c r="G11" s="12">
         <f t="shared" si="1"/>
-        <v>117.21375</v>
-      </c>
-      <c r="H11" s="13">
+        <v>120.85199999999999</v>
+      </c>
+      <c r="H11" s="12">
         <f t="shared" si="1"/>
-        <v>137.93962500000001</v>
-      </c>
-      <c r="I11" s="13">
+        <v>149.12100000000001</v>
+      </c>
+      <c r="I11" s="12">
         <f t="shared" si="1"/>
-        <v>147.64275000000001</v>
-      </c>
-      <c r="J11" s="13">
+        <v>170.01900000000001</v>
+      </c>
+      <c r="J11" s="12">
         <f t="shared" si="1"/>
-        <v>147.64275000000001</v>
-      </c>
-      <c r="K11" s="13">
+        <v>190.51200000000003</v>
+      </c>
+      <c r="K11" s="12">
         <f t="shared" si="1"/>
-        <v>147.64275000000001</v>
-      </c>
-      <c r="L11" s="13">
+        <v>198.28800000000001</v>
+      </c>
+      <c r="L11" s="12">
         <f t="shared" si="1"/>
-        <v>147.64275000000001</v>
-      </c>
-      <c r="M11" s="13">
+        <v>198.28800000000001</v>
+      </c>
+      <c r="M11" s="12">
         <f t="shared" si="1"/>
-        <v>147.64275000000001</v>
-      </c>
-      <c r="N11" s="13">
+        <v>205.416</v>
+      </c>
+      <c r="N11" s="12">
         <f t="shared" si="1"/>
-        <v>147.64275000000001</v>
-      </c>
-      <c r="O11" s="13">
+        <v>205.416</v>
+      </c>
+      <c r="O11" s="12">
         <f t="shared" si="1"/>
-        <v>147.64275000000001</v>
+        <v>205.416</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="2">
         <f>D8*Main!$C$12</f>
-        <v>6.0750000000000002</v>
+        <v>0.40500000000000003</v>
       </c>
       <c r="E12" s="2">
         <f>E8*Main!$C$12</f>
-        <v>11.913749999999999</v>
+        <v>12.183749999999998</v>
       </c>
       <c r="F12" s="2">
         <f>F8*Main!$C$12</f>
-        <v>18.764999999999997</v>
+        <v>19.288125000000001</v>
       </c>
       <c r="G12" s="2">
         <f>G8*Main!$C$12</f>
-        <v>25.481249999999999</v>
+        <v>25.177499999999998</v>
       </c>
       <c r="H12" s="2">
         <f>H8*Main!$C$12</f>
-        <v>29.986874999999998</v>
+        <v>31.066875</v>
       </c>
       <c r="I12" s="2">
         <f>I8*Main!$C$12</f>
-        <v>32.096249999999998</v>
+        <v>35.420624999999994</v>
       </c>
       <c r="J12" s="2">
         <f>J8*Main!$C$12</f>
-        <v>32.096249999999998</v>
+        <v>39.690000000000005</v>
       </c>
       <c r="K12" s="2">
         <f>K8*Main!$C$12</f>
-        <v>32.096249999999998</v>
+        <v>41.309999999999995</v>
       </c>
       <c r="L12" s="2">
         <f>L8*Main!$C$12</f>
-        <v>32.096249999999998</v>
+        <v>41.309999999999995</v>
       </c>
       <c r="M12" s="2">
         <f>M8*Main!$C$12</f>
-        <v>32.096249999999998</v>
+        <v>42.795000000000002</v>
       </c>
       <c r="N12" s="2">
         <f>N8*Main!$C$12</f>
-        <v>32.096249999999998</v>
+        <v>42.795000000000002</v>
       </c>
       <c r="O12" s="2">
         <f>O8*Main!$C$12</f>
-        <v>32.096249999999998</v>
+        <v>42.795000000000002</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1">
         <v>35</v>
@@ -1492,7 +1520,7 @@
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -1533,216 +1561,257 @@
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" ref="D15:O15" si="2">D11-D12-D13-D14</f>
-        <v>-33.129999999999995</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
-        <v>-12.110500000000002</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="2"/>
-        <v>12.554000000000002</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="2"/>
-        <v>36.732500000000002</v>
-      </c>
-      <c r="H15" s="1">
-        <f t="shared" si="2"/>
-        <v>52.952750000000009</v>
+        <v>10.5</v>
+      </c>
+      <c r="F15" s="22">
+        <v>0</v>
+      </c>
+      <c r="G15" s="22">
+        <v>0</v>
+      </c>
+      <c r="H15" s="22">
+        <v>20</v>
       </c>
       <c r="I15" s="1">
-        <f t="shared" si="2"/>
-        <v>60.546500000000009</v>
-      </c>
-      <c r="J15" s="1">
-        <f t="shared" si="2"/>
-        <v>60.546500000000009</v>
+        <v>0</v>
+      </c>
+      <c r="J15" s="22">
+        <v>20</v>
       </c>
       <c r="K15" s="1">
-        <f t="shared" si="2"/>
-        <v>60.546500000000009</v>
-      </c>
-      <c r="L15" s="1">
-        <f t="shared" si="2"/>
-        <v>60.546500000000009</v>
-      </c>
-      <c r="M15" s="1">
-        <f t="shared" si="2"/>
-        <v>60.546500000000009</v>
-      </c>
-      <c r="N15" s="1">
-        <f t="shared" si="2"/>
-        <v>60.546500000000009</v>
+        <v>0</v>
+      </c>
+      <c r="L15" s="22">
+        <v>20</v>
+      </c>
+      <c r="M15" s="22">
+        <v>20</v>
+      </c>
+      <c r="N15" s="22">
+        <v>20</v>
       </c>
       <c r="O15" s="1">
-        <f t="shared" si="2"/>
-        <v>60.546500000000009</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="2">
+        <v>12</v>
+      </c>
+      <c r="D16" s="1">
+        <f>D11-D12-D13-D14-D15</f>
+        <v>-68.460999999999999</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" ref="E16:O16" si="2">E11-E12-E13-E14-E15</f>
+        <v>-19.201750000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="2"/>
+        <v>18.29487499999999</v>
+      </c>
+      <c r="G16" s="1">
+        <f t="shared" si="2"/>
+        <v>40.674499999999995</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="2"/>
+        <v>43.054125000000013</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="2"/>
+        <v>79.598375000000004</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>75.822000000000031</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="2"/>
+        <v>101.97800000000001</v>
+      </c>
+      <c r="L16" s="1">
+        <f t="shared" si="2"/>
+        <v>81.978000000000009</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="2"/>
+        <v>87.620999999999981</v>
+      </c>
+      <c r="N16" s="1">
+        <f t="shared" si="2"/>
+        <v>87.620999999999981</v>
+      </c>
+      <c r="O16" s="1">
+        <f t="shared" si="2"/>
+        <v>107.62099999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
         <v>0</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E17" s="2">
         <v>0</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F17" s="2">
         <v>0</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G17" s="2">
         <v>0</v>
       </c>
-      <c r="H16" s="2">
-        <f t="shared" ref="H16:O16" si="3">H15*0.21</f>
-        <v>11.120077500000001</v>
-      </c>
-      <c r="I16" s="2">
+      <c r="H17" s="2">
+        <f t="shared" ref="H17:O17" si="3">H16*0.21</f>
+        <v>9.0413662500000029</v>
+      </c>
+      <c r="I17" s="2">
         <f t="shared" si="3"/>
-        <v>12.714765000000002</v>
-      </c>
-      <c r="J16" s="2">
+        <v>16.715658749999999</v>
+      </c>
+      <c r="J17" s="2">
         <f t="shared" si="3"/>
-        <v>12.714765000000002</v>
-      </c>
-      <c r="K16" s="2">
+        <v>15.922620000000006</v>
+      </c>
+      <c r="K17" s="2">
         <f t="shared" si="3"/>
-        <v>12.714765000000002</v>
-      </c>
-      <c r="L16" s="2">
+        <v>21.415380000000003</v>
+      </c>
+      <c r="L17" s="2">
         <f t="shared" si="3"/>
-        <v>12.714765000000002</v>
-      </c>
-      <c r="M16" s="2">
+        <v>17.21538</v>
+      </c>
+      <c r="M17" s="2">
         <f t="shared" si="3"/>
-        <v>12.714765000000002</v>
-      </c>
-      <c r="N16" s="2">
+        <v>18.400409999999994</v>
+      </c>
+      <c r="N17" s="2">
         <f t="shared" si="3"/>
-        <v>12.714765000000002</v>
-      </c>
-      <c r="O16" s="2">
+        <v>18.400409999999994</v>
+      </c>
+      <c r="O17" s="2">
         <f t="shared" si="3"/>
-        <v>12.714765000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13">
-        <f>-D15-D16</f>
-        <v>33.129999999999995</v>
-      </c>
-      <c r="E17" s="13">
-        <f>-E15-E16</f>
-        <v>12.110500000000002</v>
-      </c>
-      <c r="F17" s="13">
-        <f>-F15-F16</f>
-        <v>-12.554000000000002</v>
-      </c>
-      <c r="G17" s="13">
-        <f>G15*(1-0.21)</f>
-        <v>29.018675000000002</v>
-      </c>
-      <c r="H17" s="13">
-        <f t="shared" ref="H17:O17" si="4">H15*(1-0.21)</f>
-        <v>41.832672500000008</v>
-      </c>
-      <c r="I17" s="13">
+        <v>22.600409999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="11"/>
+      <c r="D18" s="12">
+        <f t="shared" ref="D18:O18" si="4">D16-D17</f>
+        <v>-68.460999999999999</v>
+      </c>
+      <c r="E18" s="12">
         <f t="shared" si="4"/>
-        <v>47.831735000000009</v>
-      </c>
-      <c r="J17" s="13">
+        <v>-19.201750000000004</v>
+      </c>
+      <c r="F18" s="12">
         <f t="shared" si="4"/>
-        <v>47.831735000000009</v>
-      </c>
-      <c r="K17" s="13">
+        <v>18.29487499999999</v>
+      </c>
+      <c r="G18" s="12">
         <f t="shared" si="4"/>
-        <v>47.831735000000009</v>
-      </c>
-      <c r="L17" s="13">
+        <v>40.674499999999995</v>
+      </c>
+      <c r="H18" s="12">
         <f t="shared" si="4"/>
-        <v>47.831735000000009</v>
-      </c>
-      <c r="M17" s="13">
+        <v>34.01275875000001</v>
+      </c>
+      <c r="I18" s="12">
         <f t="shared" si="4"/>
-        <v>47.831735000000009</v>
-      </c>
-      <c r="N17" s="13">
+        <v>62.882716250000001</v>
+      </c>
+      <c r="J18" s="12">
         <f t="shared" si="4"/>
-        <v>47.831735000000009</v>
-      </c>
-      <c r="O17" s="13">
+        <v>59.899380000000022</v>
+      </c>
+      <c r="K18" s="12">
         <f t="shared" si="4"/>
-        <v>47.831735000000009</v>
-      </c>
-    </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C20" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="18">
-        <v>0.12</v>
+        <v>80.56262000000001</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="4"/>
+        <v>64.762620000000013</v>
+      </c>
+      <c r="M18" s="12">
+        <f t="shared" si="4"/>
+        <v>69.220589999999987</v>
+      </c>
+      <c r="N18" s="12">
+        <f t="shared" si="4"/>
+        <v>69.220589999999987</v>
+      </c>
+      <c r="O18" s="12">
+        <f t="shared" si="4"/>
+        <v>85.020589999999984</v>
       </c>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0.7</v>
+        <v>15</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.12</v>
       </c>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="19">
-        <v>66.3</v>
+        <v>34</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="22">
+        <v>16</v>
+      </c>
+      <c r="D23" s="18">
+        <v>66.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="21">
         <f>Main!$C$18/1000000</f>
         <v>1.298325</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C24" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="9">
-        <f xml:space="preserve"> NPV($D$20, D17:O17)+$D$22*$D$21</f>
-        <v>242.75292516064982</v>
-      </c>
-    </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="20">
-        <f>D24/D23</f>
-        <v>186.97392806935846</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C27" s="4"/>
+      <c r="C25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="8">
+        <f>(NPV($D$21, D18:O18)+$D$23)*$D$22</f>
+        <v>170.16936261795109</v>
+      </c>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C26" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="19">
+        <f>D25/D24</f>
+        <v>131.06838628074721</v>
+      </c>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="C29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPRB.xlsx
+++ b/SPRB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corben/Documents/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4478C0C-6AF3-0543-9114-EEACCA6933DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA0072D-F3F7-484C-9FA8-020A60EE4588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="760" windowWidth="33960" windowHeight="19860" activeTab="1" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>COGS</t>
   </si>
@@ -180,6 +180,9 @@
   </si>
   <si>
     <t>% eligible for treatment</t>
+  </si>
+  <si>
+    <t>Model doesn't account Tildacerfont/ Cortibon trial</t>
   </si>
 </sst>
 </file>
@@ -394,6 +397,50 @@
         <a:xfrm>
           <a:off x="6883400" y="5080000"/>
           <a:ext cx="12546644" cy="3352800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>101045</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0633F3F8-6F05-8742-3766-2282B8E7CE86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6794500" y="9753600"/>
+          <a:ext cx="7772400" cy="1929845"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,7 +752,7 @@
   <dimension ref="B3:I47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -937,7 +984,9 @@
       </c>
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E47" s="15"/>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -958,7 +1007,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/SPRB.xlsx
+++ b/SPRB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/corben/Documents/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdl/Documents/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DA0072D-F3F7-484C-9FA8-020A60EE4588}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE7974-ED8E-7A4D-833D-5F7752C27D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="760" windowWidth="33960" windowHeight="19860" activeTab="1" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
+    <workbookView xWindow="600" yWindow="620" windowWidth="50000" windowHeight="26360" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>COGS</t>
   </si>
@@ -140,9 +140,6 @@
     <t>US prevalence</t>
   </si>
   <si>
-    <t>Probability of success</t>
-  </si>
-  <si>
     <t>* Lever to model the possibility that the patient pool is larger than expected</t>
   </si>
   <si>
@@ -183,6 +180,15 @@
   </si>
   <si>
     <t>Model doesn't account Tildacerfont/ Cortibon trial</t>
+  </si>
+  <si>
+    <t>Probability of Success</t>
+  </si>
+  <si>
+    <t>At the end of the IP exclusivity period, model for erosion (-35%, -20%, -20%, -10%+)</t>
+  </si>
+  <si>
+    <t>Risk-Adj. NI</t>
   </si>
 </sst>
 </file>
@@ -311,7 +317,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -338,7 +344,6 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -453,9 +458,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -493,7 +498,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -599,7 +604,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -741,7 +746,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -751,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000C3FC5-45B7-804F-BAC7-6E46AF3AFBD9}">
   <dimension ref="B3:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -853,13 +858,13 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="16">
         <v>0.7</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F7" s="16">
         <v>0.65</v>
@@ -879,14 +884,12 @@
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="7">
         <f>F6*C8*F7</f>
         <v>331.11</v>
       </c>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
@@ -905,7 +908,7 @@
         <v>900000</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="23">
         <f>C11/1.6</f>
@@ -943,7 +946,7 @@
         <v>0.17</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -965,17 +968,17 @@
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="5:5" x14ac:dyDescent="0.2">
@@ -985,7 +988,7 @@
     </row>
     <row r="47" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1001,13 +1004,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F22E3D-7CD6-684C-96B5-393F273B0779}">
-  <dimension ref="B2:O29"/>
+  <dimension ref="B2:AS28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1019,7 +1022,7 @@
     <col min="7" max="15" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C2">
         <v>2025</v>
       </c>
@@ -1032,7 +1035,7 @@
         <v>2027</v>
       </c>
       <c r="F2">
-        <f t="shared" ref="F2:O2" si="0">E2+1</f>
+        <f t="shared" ref="F2:P2" si="0">E2+1</f>
         <v>2028</v>
       </c>
       <c r="G2">
@@ -1071,10 +1074,38 @@
         <f t="shared" si="0"/>
         <v>2037</v>
       </c>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>2038</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2" si="1">P2+1</f>
+        <v>2039</v>
+      </c>
+      <c r="R2">
+        <f t="shared" ref="R2" si="2">Q2+1</f>
+        <v>2040</v>
+      </c>
+      <c r="S2">
+        <f t="shared" ref="S2" si="3">R2+1</f>
+        <v>2041</v>
+      </c>
+      <c r="T2">
+        <f t="shared" ref="T2" si="4">S2+1</f>
+        <v>2042</v>
+      </c>
+      <c r="U2">
+        <f t="shared" ref="U2" si="5">T2+1</f>
+        <v>2043</v>
+      </c>
+      <c r="V2">
+        <f t="shared" ref="V2" si="6">U2+1</f>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="3" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="3">
         <v>0.01</v>
@@ -1113,9 +1144,9 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="4" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D4" s="3">
         <v>0</v>
@@ -1154,9 +1185,9 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="5" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="11">
         <f>ROUNDUP(D3*Main!$C$9,0)</f>
@@ -1207,9 +1238,9 @@
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="11">
         <f>ROUNDUP(D4*Main!$F$8,0)</f>
@@ -1260,7 +1291,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
@@ -1312,8 +1343,15 @@
         <f>((O5*Main!$C$11)+(O6*Main!$F$11))/1000000</f>
         <v>285.3</v>
       </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>0</v>
       </c>
@@ -1365,8 +1403,15 @@
         <f>O8*Main!$C$15</f>
         <v>48.501000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+    </row>
+    <row r="10" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>11</v>
       </c>
@@ -1418,8 +1463,15 @@
         <f>O8*Main!$C$16</f>
         <v>31.383000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+    </row>
+    <row r="11" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>10</v>
       </c>
@@ -1429,51 +1481,58 @@
         <v>1.944</v>
       </c>
       <c r="E11" s="12">
-        <f t="shared" ref="E11:O11" si="1">E8-E9-E10</f>
+        <f t="shared" ref="E11:O11" si="7">E8-E9-E10</f>
         <v>58.481999999999992</v>
       </c>
       <c r="F11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>92.582999999999998</v>
       </c>
       <c r="G11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>120.85199999999999</v>
       </c>
       <c r="H11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>149.12100000000001</v>
       </c>
       <c r="I11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>170.01900000000001</v>
       </c>
       <c r="J11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>190.51200000000003</v>
       </c>
       <c r="K11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>198.28800000000001</v>
       </c>
       <c r="L11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>198.28800000000001</v>
       </c>
       <c r="M11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>205.416</v>
       </c>
       <c r="N11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>205.416</v>
       </c>
       <c r="O11" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>205.416</v>
       </c>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>19</v>
       </c>
@@ -1525,8 +1584,15 @@
         <f>O8*Main!$C$12</f>
         <v>42.795000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+    </row>
+    <row r="13" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>7</v>
       </c>
@@ -1566,8 +1632,15 @@
       <c r="O13" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>13</v>
       </c>
@@ -1607,10 +1680,17 @@
       <c r="O14" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D15" s="1">
         <v>15</v>
@@ -1649,7 +1729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>12</v>
       </c>
@@ -1658,51 +1738,81 @@
         <v>-68.460999999999999</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" ref="E16:O16" si="2">E11-E12-E13-E14-E15</f>
+        <f t="shared" ref="E16:O16" si="8">E11-E12-E13-E14-E15</f>
         <v>-19.201750000000004</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>18.29487499999999</v>
       </c>
       <c r="G16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>40.674499999999995</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>43.054125000000013</v>
       </c>
       <c r="I16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>79.598375000000004</v>
       </c>
       <c r="J16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>75.822000000000031</v>
       </c>
       <c r="K16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>101.97800000000001</v>
       </c>
       <c r="L16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>81.978000000000009</v>
       </c>
       <c r="M16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>87.620999999999981</v>
       </c>
       <c r="N16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>87.620999999999981</v>
       </c>
       <c r="O16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="8"/>
         <v>107.62099999999998</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="1"/>
+      <c r="AS16" s="1"/>
+    </row>
+    <row r="17" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>9</v>
       </c>
@@ -1719,109 +1829,293 @@
         <v>0</v>
       </c>
       <c r="H17" s="2">
-        <f t="shared" ref="H17:O17" si="3">H16*0.21</f>
+        <f t="shared" ref="H17:O17" si="9">H16*0.21</f>
         <v>9.0413662500000029</v>
       </c>
       <c r="I17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>16.715658749999999</v>
       </c>
       <c r="J17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>15.922620000000006</v>
       </c>
       <c r="K17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>21.415380000000003</v>
       </c>
       <c r="L17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>17.21538</v>
       </c>
       <c r="M17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>18.400409999999994</v>
       </c>
       <c r="N17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>18.400409999999994</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="9"/>
         <v>22.600409999999997</v>
       </c>
-    </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+    </row>
+    <row r="18" spans="2:45" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="12">
-        <f t="shared" ref="D18:O18" si="4">D16-D17</f>
+        <f t="shared" ref="D18:O18" si="10">D16-D17</f>
         <v>-68.460999999999999</v>
       </c>
       <c r="E18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>-19.201750000000004</v>
       </c>
       <c r="F18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>18.29487499999999</v>
       </c>
       <c r="G18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>40.674499999999995</v>
       </c>
       <c r="H18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>34.01275875000001</v>
       </c>
       <c r="I18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>62.882716250000001</v>
       </c>
       <c r="J18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>59.899380000000022</v>
       </c>
       <c r="K18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>80.56262000000001</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>64.762620000000013</v>
       </c>
       <c r="M18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>69.220589999999987</v>
       </c>
       <c r="N18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>69.220589999999987</v>
       </c>
       <c r="O18" s="12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="10"/>
         <v>85.020589999999984</v>
       </c>
-    </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C21" s="5" t="s">
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="12"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="12"/>
+      <c r="AA18" s="12"/>
+      <c r="AB18" s="12"/>
+      <c r="AC18" s="12"/>
+      <c r="AD18" s="12"/>
+      <c r="AE18" s="12"/>
+      <c r="AF18" s="12"/>
+      <c r="AG18" s="12"/>
+      <c r="AH18" s="12"/>
+      <c r="AI18" s="12"/>
+      <c r="AJ18" s="12"/>
+      <c r="AK18" s="12"/>
+      <c r="AL18" s="12"/>
+      <c r="AM18" s="12"/>
+      <c r="AN18" s="12"/>
+      <c r="AO18" s="12"/>
+      <c r="AP18" s="12"/>
+      <c r="AQ18" s="12"/>
+      <c r="AR18" s="12"/>
+      <c r="AS18" s="12"/>
+    </row>
+    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.7</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="3">
+        <v>1</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" s="1">
+        <f>D18*D19</f>
+        <v>-47.922699999999999</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" ref="E20:O20" si="11">E18*E19</f>
+        <v>-19.201750000000004</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="11"/>
+        <v>18.29487499999999</v>
+      </c>
+      <c r="G20" s="1">
+        <f t="shared" si="11"/>
+        <v>40.674499999999995</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" si="11"/>
+        <v>34.01275875000001</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="11"/>
+        <v>62.882716250000001</v>
+      </c>
+      <c r="J20" s="1">
+        <f t="shared" si="11"/>
+        <v>59.899380000000022</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="11"/>
+        <v>80.56262000000001</v>
+      </c>
+      <c r="L20" s="1">
+        <f t="shared" si="11"/>
+        <v>64.762620000000013</v>
+      </c>
+      <c r="M20" s="1">
+        <f t="shared" si="11"/>
+        <v>69.220589999999987</v>
+      </c>
+      <c r="N20" s="1">
+        <f t="shared" si="11"/>
+        <v>69.220589999999987</v>
+      </c>
+      <c r="O20" s="1">
+        <f t="shared" si="11"/>
+        <v>85.020589999999984</v>
+      </c>
+      <c r="P20" s="1">
+        <f>O20*0.65</f>
+        <v>55.263383499999989</v>
+      </c>
+      <c r="Q20" s="1">
+        <f>P20*0.8</f>
+        <v>44.210706799999997</v>
+      </c>
+      <c r="R20" s="1">
+        <f>Q20*0.8</f>
+        <v>35.368565439999998</v>
+      </c>
+      <c r="S20" s="1">
+        <f>R20*0.9</f>
+        <v>31.831708895999999</v>
+      </c>
+      <c r="T20" s="1">
+        <f>S20*0.9</f>
+        <v>28.648538006399999</v>
+      </c>
+      <c r="U20" s="1">
+        <f>T20*0.9</f>
+        <v>25.78368420576</v>
+      </c>
+      <c r="V20" s="1">
+        <f>U20*0.9</f>
+        <v>23.205315785184002</v>
+      </c>
+    </row>
+    <row r="22" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D22" s="17">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C22" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
         <v>16</v>
       </c>
@@ -1829,7 +2123,7 @@
         <v>66.3</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
@@ -1838,29 +2132,29 @@
         <v>1.298325</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C25" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="8">
-        <f>(NPV($D$21, D18:O18)+$D$23)*$D$22</f>
-        <v>170.16936261795109</v>
-      </c>
-    </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.2">
+        <f>NPV($D$22, D20:AS20)+$D$23</f>
+        <v>288.81541655776465</v>
+      </c>
+    </row>
+    <row r="26" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C26" s="20" t="s">
         <v>18</v>
       </c>
       <c r="D26" s="19">
         <f>D25/D24</f>
-        <v>131.06838628074721</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.2">
+        <v>222.45232631102741</v>
+      </c>
+    </row>
+    <row r="27" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.2">
-      <c r="C29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPRB.xlsx
+++ b/SPRB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdl/Documents/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49EE7974-ED8E-7A4D-833D-5F7752C27D83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4678D86C-F8DE-824A-BFF0-59BB72209C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="620" windowWidth="50000" windowHeight="26360" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
+    <workbookView xWindow="600" yWindow="620" windowWidth="50600" windowHeight="26360" activeTab="1" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000C3FC5-45B7-804F-BAC7-6E46AF3AFBD9}">
   <dimension ref="B3:I47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -1006,7 +1006,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F22E3D-7CD6-684C-96B5-393F273B0779}">
   <dimension ref="B2:AS28"/>
   <sheetViews>
-    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -1980,7 +1980,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="3">
-        <v>0.7</v>
+        <v>0.65</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -2029,7 +2029,7 @@
       </c>
       <c r="D20" s="1">
         <f>D18*D19</f>
-        <v>-47.922699999999999</v>
+        <v>-44.499650000000003</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ref="E20:O20" si="11">E18*E19</f>
@@ -2109,7 +2109,7 @@
         <v>15</v>
       </c>
       <c r="D22" s="17">
-        <v>0.12</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="P22" t="s">
         <v>49</v>
@@ -2138,7 +2138,7 @@
       </c>
       <c r="D25" s="8">
         <f>NPV($D$22, D20:AS20)+$D$23</f>
-        <v>288.81541655776465</v>
+        <v>352.54350908092005</v>
       </c>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.2">
@@ -2147,7 +2147,7 @@
       </c>
       <c r="D26" s="19">
         <f>D25/D24</f>
-        <v>222.45232631102741</v>
+        <v>271.53717989018162</v>
       </c>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.2">

--- a/SPRB.xlsx
+++ b/SPRB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdl/Documents/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4678D86C-F8DE-824A-BFF0-59BB72209C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF667D9-4E7B-A744-833A-0F3B669E4360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="620" windowWidth="50600" windowHeight="26360" activeTab="1" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="50600" windowHeight="26360" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <t>COGS</t>
   </si>
@@ -182,13 +182,7 @@
     <t>Model doesn't account Tildacerfont/ Cortibon trial</t>
   </si>
   <si>
-    <t>Probability of Success</t>
-  </si>
-  <si>
     <t>At the end of the IP exclusivity period, model for erosion (-35%, -20%, -20%, -10%+)</t>
-  </si>
-  <si>
-    <t>Risk-Adj. NI</t>
   </si>
 </sst>
 </file>
@@ -317,7 +311,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -344,6 +338,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -756,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000C3FC5-45B7-804F-BAC7-6E46AF3AFBD9}">
   <dimension ref="B3:I47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -963,6 +961,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="25">
+        <f>1298325</f>
         <v>1298325</v>
       </c>
     </row>
@@ -1004,13 +1003,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0F22E3D-7CD6-684C-96B5-393F273B0779}">
-  <dimension ref="B2:AS28"/>
+  <dimension ref="B2:AS27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
+    <sheetView zoomScale="92" zoomScaleNormal="92" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D24" sqref="D24"/>
+      <selection pane="bottomRight" activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1944,13 +1943,34 @@
         <f t="shared" si="10"/>
         <v>85.020589999999984</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="P18" s="1">
+        <f>O18*0.65</f>
+        <v>55.263383499999989</v>
+      </c>
+      <c r="Q18" s="1">
+        <f>P18*0.8</f>
+        <v>44.210706799999997</v>
+      </c>
+      <c r="R18" s="1">
+        <f>Q18*0.8</f>
+        <v>35.368565439999998</v>
+      </c>
+      <c r="S18" s="1">
+        <f>R18*0.9</f>
+        <v>31.831708895999999</v>
+      </c>
+      <c r="T18" s="1">
+        <f>S18*0.9</f>
+        <v>28.648538006399999</v>
+      </c>
+      <c r="U18" s="1">
+        <f>T18*0.9</f>
+        <v>25.78368420576</v>
+      </c>
+      <c r="V18" s="1">
+        <f>U18*0.9</f>
+        <v>23.205315785184002</v>
+      </c>
       <c r="W18" s="12"/>
       <c r="X18" s="12"/>
       <c r="Y18" s="12"/>
@@ -1975,186 +1995,62 @@
       <c r="AR18" s="12"/>
       <c r="AS18" s="12"/>
     </row>
-    <row r="19" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B19" t="s">
+    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="C20" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="17">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="P20" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>1</v>
-      </c>
-      <c r="G19" s="3">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <v>1</v>
-      </c>
-      <c r="I19" s="3">
-        <v>1</v>
-      </c>
-      <c r="J19" s="3">
-        <v>1</v>
-      </c>
-      <c r="K19" s="3">
-        <v>1</v>
-      </c>
-      <c r="L19" s="3">
-        <v>1</v>
-      </c>
-      <c r="M19" s="3">
-        <v>1</v>
-      </c>
-      <c r="N19" s="3">
-        <v>1</v>
-      </c>
-      <c r="O19" s="3">
-        <v>1</v>
-      </c>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
-      <c r="R19" s="3"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="3"/>
-      <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="1">
-        <f>D18*D19</f>
-        <v>-44.499650000000003</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" ref="E20:O20" si="11">E18*E19</f>
-        <v>-19.201750000000004</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="11"/>
-        <v>18.29487499999999</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="11"/>
-        <v>40.674499999999995</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="11"/>
-        <v>34.01275875000001</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="11"/>
-        <v>62.882716250000001</v>
-      </c>
-      <c r="J20" s="1">
-        <f t="shared" si="11"/>
-        <v>59.899380000000022</v>
-      </c>
-      <c r="K20" s="1">
-        <f t="shared" si="11"/>
-        <v>80.56262000000001</v>
-      </c>
-      <c r="L20" s="1">
-        <f t="shared" si="11"/>
-        <v>64.762620000000013</v>
-      </c>
-      <c r="M20" s="1">
-        <f t="shared" si="11"/>
-        <v>69.220589999999987</v>
-      </c>
-      <c r="N20" s="1">
-        <f t="shared" si="11"/>
-        <v>69.220589999999987</v>
-      </c>
-      <c r="O20" s="1">
-        <f t="shared" si="11"/>
-        <v>85.020589999999984</v>
-      </c>
-      <c r="P20" s="1">
-        <f>O20*0.65</f>
-        <v>55.263383499999989</v>
-      </c>
-      <c r="Q20" s="1">
-        <f>P20*0.8</f>
-        <v>44.210706799999997</v>
-      </c>
-      <c r="R20" s="1">
-        <f>Q20*0.8</f>
-        <v>35.368565439999998</v>
-      </c>
-      <c r="S20" s="1">
-        <f>R20*0.9</f>
-        <v>31.831708895999999</v>
-      </c>
-      <c r="T20" s="1">
-        <f>S20*0.9</f>
-        <v>28.648538006399999</v>
-      </c>
-      <c r="U20" s="1">
-        <f>T20*0.9</f>
-        <v>25.78368420576</v>
-      </c>
-      <c r="V20" s="1">
-        <f>U20*0.9</f>
-        <v>23.205315785184002</v>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.2">
+      <c r="C21" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="18">
+        <v>66.3</v>
       </c>
     </row>
     <row r="22" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="17">
-        <v>9.5000000000000001E-2</v>
-      </c>
-      <c r="P22" t="s">
-        <v>49</v>
+        <v>17</v>
+      </c>
+      <c r="D22" s="21">
+        <f>Main!$C$18/1000000</f>
+        <v>1.298325</v>
       </c>
     </row>
     <row r="23" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="18">
-        <v>66.3</v>
+        <v>14</v>
+      </c>
+      <c r="D23" s="8">
+        <f xml:space="preserve"> NPV($D$20,D18:V18)+$D$21</f>
+        <v>330.66099766539497</v>
       </c>
     </row>
     <row r="24" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="C24" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="21">
-        <f>Main!$C$18/1000000</f>
-        <v>1.298325</v>
+      <c r="C24" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="19">
+        <f>D23/D22</f>
+        <v>254.68276253279802</v>
       </c>
     </row>
     <row r="25" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="C25" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25" s="8">
-        <f>NPV($D$22, D20:AS20)+$D$23</f>
-        <v>352.54350908092005</v>
-      </c>
+      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="C26" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="19">
-        <f>D25/D24</f>
-        <v>271.53717989018162</v>
-      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="C28" s="4"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SPRB.xlsx
+++ b/SPRB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cdl/Documents/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF667D9-4E7B-A744-833A-0F3B669E4360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DA6D38-EEF1-204B-BEE1-C5948BEBDFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="620" windowWidth="50600" windowHeight="26360" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
+    <workbookView xWindow="600" yWindow="620" windowWidth="50000" windowHeight="26360" xr2:uid="{D7E1BACE-2359-D64B-91EE-3C4F53AFF46B}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>COGS</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>At the end of the IP exclusivity period, model for erosion (-35%, -20%, -20%, -10%+)</t>
+  </si>
+  <si>
+    <t>&lt;- model for more dilution</t>
+  </si>
+  <si>
+    <t>Note: need to re-model the patient pool. Currently only taking infants born w/ sanfillipo, not accounting for current prevalence &amp; death rate</t>
   </si>
 </sst>
 </file>
@@ -241,7 +247,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -251,6 +257,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +323,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -338,10 +350,10 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="3" builtinId="3"/>
@@ -755,7 +767,7 @@
   <dimension ref="B3:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -961,13 +973,21 @@
         <v>17</v>
       </c>
       <c r="C18" s="25">
-        <f>1298325</f>
-        <v>1298325</v>
+        <f>1298325*2</f>
+        <v>2596650</v>
+      </c>
+      <c r="D18" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="B21" s="27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.2">
@@ -2020,7 +2040,7 @@
       </c>
       <c r="D22" s="21">
         <f>Main!$C$18/1000000</f>
-        <v>1.298325</v>
+        <v>2.5966499999999999</v>
       </c>
     </row>
     <row r="23" spans="2:45" x14ac:dyDescent="0.2">
@@ -2038,19 +2058,18 @@
       </c>
       <c r="D24" s="19">
         <f>D23/D22</f>
-        <v>254.68276253279802</v>
+        <v>127.34138126639901</v>
       </c>
     </row>
     <row r="25" spans="2:45" x14ac:dyDescent="0.2">
       <c r="C25" s="4"/>
     </row>
     <row r="26" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="26"/>
     </row>
     <row r="27" spans="2:45" x14ac:dyDescent="0.2">
-      <c r="C27" s="28"/>
-      <c r="D27" s="29"/>
+      <c r="D27" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
